--- a/db/db/data/address.xlsx
+++ b/db/db/data/address.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\학교\2025-2\오픈소스 SW 실습\팀 프로젝트\테스트\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\OSSWTeamProject\Test\SmokingArea_Backend\db\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A1353-6027-4062-99EC-0D1CF9886B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF65C7B4-4073-42AC-B36A-B53688D46E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="-18525" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{1A8D7062-8151-4E5D-9BC6-0FA49EEDFFDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A8D7062-8151-4E5D-9BC6-0FA49EEDFFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -39,10 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>지번주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 수원시 권선구 구운동 496-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +115,10 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlot_address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1641,32 +1641,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89AA4DC-F9A1-42B8-826E-88B1ACAA18EB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>197664.31467359699</v>
@@ -1677,10 +1675,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>202915.639975659</v>
@@ -1691,10 +1689,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>200755.084103564</v>
@@ -1705,10 +1703,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>198459.659511707</v>
@@ -1719,10 +1717,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6">
         <v>198779.282627623</v>
@@ -1733,10 +1731,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>198779.282627623</v>
@@ -1747,10 +1745,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8">
         <v>200422.75334882201</v>
@@ -1761,10 +1759,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
       <c r="C9">
         <v>204686.02238294299</v>
@@ -1775,10 +1773,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10">
         <v>203747.76199232199</v>
@@ -1789,10 +1787,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="C11">
         <v>200015.62841560401</v>
@@ -1803,10 +1801,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
       <c r="C12">
         <v>200513.09393374299</v>
